--- a/src/test/resources/formsautomation.xlsx
+++ b/src/test/resources/formsautomation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="73">
   <si>
     <t>No</t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t>14-01-2026 16:33:43</t>
+  </si>
+  <si>
+    <t>20-01-2026 15:20:22</t>
   </si>
 </sst>
 </file>
@@ -1888,7 +1891,7 @@
         <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/formsautomation.xlsx
+++ b/src/test/resources/formsautomation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="74">
   <si>
     <t>No</t>
   </si>
@@ -234,6 +234,9 @@
   </si>
   <si>
     <t>20-01-2026 15:20:22</t>
+  </si>
+  <si>
+    <t>13-02-2026 21:38:49</t>
   </si>
 </sst>
 </file>
@@ -1544,7 +1547,9 @@
       <c r="D10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E10"/>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1891,7 +1896,7 @@
         <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/formsautomation.xlsx
+++ b/src/test/resources/formsautomation.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19650" windowHeight="5100"/>
+    <workbookView windowWidth="18765" windowHeight="2850"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="A1:I31"/>
+  <oleSize ref="A1:L33"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="157">
   <si>
     <t>No</t>
   </si>
@@ -32,6 +32,27 @@
     <t>Status</t>
   </si>
   <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Field Errors</t>
+  </si>
+  <si>
+    <t>Global Errors</t>
+  </si>
+  <si>
+    <t>Server Info</t>
+  </si>
+  <si>
+    <t>Thank You Msg</t>
+  </si>
+  <si>
+    <t>URL &amp; Page Title</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
     <t>Ailment Detail Page</t>
   </si>
   <si>
@@ -41,9 +62,36 @@
     <t>https://www.medanta.org/hospitals-near-me/gurugram-hospital/speciality/orthopaedics/disease/achilles-tendon-injury-symptoms-causes-treatment-recovery</t>
   </si>
   <si>
+    <t>✅ PASS</t>
+  </si>
+  <si>
+    <t>Name=dipesh | Mobile=9876543210 | Email=dipesh@yopmail.com | Message=test message</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>https://www.medanta.org/hospitals-near-me/gurugram-hospital/speciality/orthopaedics/disease/achilles-tendon-injury-symptoms-causes-treatment-recovery | Achilles Tendon Injury - Symptoms, Causes, Treatment &amp; Recovery | Medanta</t>
+  </si>
+  <si>
+    <t>22-02-2026 17:46:31</t>
+  </si>
+  <si>
     <t>Air Ambulance</t>
   </si>
   <si>
+    <t>Name=Dipesh | Mobile=9876543210 | Email=dipesh@yopmail.com | Message=Test</t>
+  </si>
+  <si>
+    <t>https://www.medanta.org/air-ambulance | Emergency Air Ambulance for Critical Medical Transport</t>
+  </si>
+  <si>
+    <t>22-02-2026 17:47:06</t>
+  </si>
+  <si>
     <t>Become A Partner</t>
   </si>
   <si>
@@ -53,6 +101,21 @@
     <t>https://www.medanta.org/medanta-labs/become-a-partner</t>
   </si>
   <si>
+    <t>❌ SERVER_FAIL (POST SUBMIT)</t>
+  </si>
+  <si>
+    <t>Name=Dipesh | Email=dipesh@yopmail.com | Mobile=9876543210 | Address=Test | Pincode=123456</t>
+  </si>
+  <si>
+    <t>API returned 5xx after submit</t>
+  </si>
+  <si>
+    <t>https://www.medanta.org/medanta-labs/become-a-partner | Become a Partner with Medanta Labs - Collaboration Opportunities | Medanta</t>
+  </si>
+  <si>
+    <t>22-02-2026 17:47:40</t>
+  </si>
+  <si>
     <t>Blog Detail Page</t>
   </si>
   <si>
@@ -62,6 +125,15 @@
     <t>https://www.medanta.org/patient-education-blog/omicron-variant-key-facts-you-need-to-know-in-2025</t>
   </si>
   <si>
+    <t>Name=Test | Mobile=9876543210 | Email=dipesh@yopmail.com</t>
+  </si>
+  <si>
+    <t>https://www.medanta.org/patient-education-blog/omicron-variant-key-facts-you-need-to-know-in-2025 | Omicron Variant B.1.1.529 : Key Facts You Need to Know in 2025</t>
+  </si>
+  <si>
+    <t>22-02-2026 17:48:16</t>
+  </si>
+  <si>
     <t>Contact us</t>
   </si>
   <si>
@@ -71,12 +143,33 @@
     <t>https://www.medanta.org/contact-us</t>
   </si>
   <si>
+    <t>Name=dipesh | Email=dipesh@yopmail.com | Hospital=Medanta Gurugram | Mobile=9876543210 | Message=Automation test enquiry</t>
+  </si>
+  <si>
+    <t>https://www.medanta.org/contact-us | Medanta Customer Services - Call +91-880-000-1068 for Appointments, Queries</t>
+  </si>
+  <si>
+    <t>22-02-2026 17:48:56</t>
+  </si>
+  <si>
     <t>Feedback</t>
   </si>
   <si>
+    <t>Message=Test | Name=Dipesh | Mobile=9876543210 | Email=dipesh@yopmail.com</t>
+  </si>
+  <si>
+    <t>22-02-2026 17:49:31</t>
+  </si>
+  <si>
     <t>Others</t>
   </si>
   <si>
+    <t>Name=dipesh | Email=dipesh@yopmail.com | Hospital=Select Hospital | Mobile=9876543210 | Message=Test</t>
+  </si>
+  <si>
+    <t>22-02-2026 17:50:10</t>
+  </si>
+  <si>
     <t>CPR</t>
   </si>
   <si>
@@ -86,12 +179,30 @@
     <t>https://www.medanta.org/cpr</t>
   </si>
   <si>
+    <t>Name=Test | Mobile=9876543210 | Email=wakemedantatest@gmail.com | Location=Gurugram</t>
+  </si>
+  <si>
+    <t>https://www.medanta.org/cpr | Learn CPR Techniques &amp; Emergency Response Guidelines | Medanta</t>
+  </si>
+  <si>
+    <t>22-02-2026 17:50:48</t>
+  </si>
+  <si>
     <t>Cultural Event Detail Page</t>
   </si>
   <si>
     <t>https://www.medanta.org/careers/events/cultural-events</t>
   </si>
   <si>
+    <t>Name=Test | Mobile=9876543210 | Email=wakemedantatest@gmail.com</t>
+  </si>
+  <si>
+    <t>https://www.medanta.org/careers/events/cultural-events | Cultural Events at Medanta - Celebrating Diversity and Inclusion | Medanta</t>
+  </si>
+  <si>
+    <t>22-02-2026 17:51:27</t>
+  </si>
+  <si>
     <t>Elder care</t>
   </si>
   <si>
@@ -101,9 +212,24 @@
     <t>https://www.medanta.org/elder-care-program</t>
   </si>
   <si>
+    <t>Name=Dipesh | Mobile=9876543210 | Email=dipesh@yopmail.com | City=Gurugram | Mode=Call | ConsentChecked=true</t>
+  </si>
+  <si>
+    <t>https://www.medanta.org/elder-care-program | 1 new message</t>
+  </si>
+  <si>
+    <t>22-02-2026 17:52:08</t>
+  </si>
+  <si>
     <t>Request a Callback</t>
   </si>
   <si>
+    <t>https://www.medanta.org/elder-care-program | Elder Care Program | Medanta</t>
+  </si>
+  <si>
+    <t>22-02-2026 17:52:47</t>
+  </si>
+  <si>
     <t>Header</t>
   </si>
   <si>
@@ -113,9 +239,24 @@
     <t>https://www.medanta.org/</t>
   </si>
   <si>
+    <t>Name=Test | Mobile=9876543211 | LastName=9876543211</t>
+  </si>
+  <si>
+    <t>https://www.medanta.org/ | Super Speciality Hospital | Best Healthcare Hospital in India</t>
+  </si>
+  <si>
+    <t>22-02-2026 17:53:21</t>
+  </si>
+  <si>
     <t>HealthCheckup</t>
   </si>
   <si>
+    <t>https://www.medanta.org/healthcheckup/gurugram-hospital | Health CheckUp | Medanta</t>
+  </si>
+  <si>
+    <t>22-02-2026 17:54:08</t>
+  </si>
+  <si>
     <t>Homecare</t>
   </si>
   <si>
@@ -125,24 +266,57 @@
     <t>Elder Care program - https://www.medanta.org/home-care-service-program/elder-care-program</t>
   </si>
   <si>
+    <t>Name=Dipesh | Mobile=9876543210 | Email=dipesh@yopmail.com</t>
+  </si>
+  <si>
+    <t>https://www.medanta.org/home-care-service-program/elder-care-program | Dr. Dharmendera Singh | Cardiologist &amp; Heart Health Transformations | Medanta</t>
+  </si>
+  <si>
+    <t>22-02-2026 17:54:47</t>
+  </si>
+  <si>
     <t>EnquiryNow</t>
   </si>
   <si>
     <t>https://www.medanta.org/home-care</t>
   </si>
   <si>
+    <t>Name=Dipesh | Mobile=9876543210 | Email=dipesh@yopmail.com | Location=Gurugram</t>
+  </si>
+  <si>
+    <t>https://www.medanta.org/home-care | Personalized Healthcare at Home - Home Care Services at Medanta</t>
+  </si>
+  <si>
+    <t>22-02-2026 17:55:26</t>
+  </si>
+  <si>
+    <t>22-02-2026 17:56:04</t>
+  </si>
+  <si>
     <t>Stroke Rehabilitation Program</t>
   </si>
   <si>
     <t>Stroke Rehabilitation Program - https://www.medanta.org/home-care-service-program/stroke-rehabilitation-program</t>
   </si>
   <si>
+    <t>https://www.medanta.org/home-care-service-program/stroke-rehabilitation-program | Home Care Service | Medanta</t>
+  </si>
+  <si>
+    <t>22-02-2026 17:56:43</t>
+  </si>
+  <si>
     <t>International Patients</t>
   </si>
   <si>
     <t>https://www.medanta.org/international-patient</t>
   </si>
   <si>
+    <t>https://www.medanta.org/international-patient | International Patient Services | Medanta Hospitals India</t>
+  </si>
+  <si>
+    <t>22-02-2026 17:57:22</t>
+  </si>
+  <si>
     <t>Temporary Landing</t>
   </si>
   <si>
@@ -152,12 +326,36 @@
     <t>https://www.medanta.org/ehc/hishealth-checkup/L1gz</t>
   </si>
   <si>
+    <t>Name=Test | Mobile=9876543210 | Email=wakemedantatest@gmail.com | Message=Testing the form Please ignore</t>
+  </si>
+  <si>
+    <t>https://www.medanta.org/landing/thankyou | Thankyou | Medanta</t>
+  </si>
+  <si>
+    <t>22-02-2026 17:58:05</t>
+  </si>
+  <si>
     <t>Medanta Labs</t>
   </si>
   <si>
     <t>https://www.medanta.org/medanta-labs</t>
   </si>
   <si>
+    <t>❌ SERVER_FAIL</t>
+  </si>
+  <si>
+    <t>API returned 5xx</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>https://www.medanta.org/medanta-labs | Advanced Diagnostic Tests &amp; Reliable Lab Services</t>
+  </si>
+  <si>
+    <t>22-02-2026 17:58:48</t>
+  </si>
+  <si>
     <t>Medanta Pharmacy</t>
   </si>
   <si>
@@ -167,18 +365,30 @@
     <t>https://www.medanta.org/medanta-pharmacy</t>
   </si>
   <si>
+    <t>https://www.medanta.org/medanta-pharmacy | Medanta Pharmacy | Medanta</t>
+  </si>
+  <si>
+    <t>22-02-2026 17:59:28</t>
+  </si>
+  <si>
     <t>Prescription upload Form</t>
   </si>
   <si>
-    <t>✅ FORM SUBMITTED SUCCESSFULLY!</t>
-  </si>
-  <si>
     <t>Plan your trip</t>
   </si>
   <si>
     <t>https://www.medanta.org/plan-your-trip</t>
   </si>
   <si>
+    <t>Name=Test | Mobile=9876543210</t>
+  </si>
+  <si>
+    <t>https://www.medanta.org/plan-your-trip | Plan Your Medical Trip: International Patient Guide | Medanta</t>
+  </si>
+  <si>
+    <t>22-02-2026 18:00:26</t>
+  </si>
+  <si>
     <t>Request an Estimate</t>
   </si>
   <si>
@@ -188,6 +398,15 @@
     <t>https://www.medanta.org/international-patient/services/request-an-estimate</t>
   </si>
   <si>
+    <t>FirstName=Dipesh | LastName=Singh | Email=dipesh@yopmail.com | Mobile=9876543210 | CountryIndex=8 | Department=Obstetrics | File=C:\Users\LYXELANDFLAMINGO\eclipse-workspace\Eclipse 1\Medanta\SampleDocs\upload.docx</t>
+  </si>
+  <si>
+    <t>https://www.medanta.org/international-patient/services/request-an-estimate | Request An Estimate | Medanta</t>
+  </si>
+  <si>
+    <t>22-02-2026 18:01:09</t>
+  </si>
+  <si>
     <t>Second Opinion</t>
   </si>
   <si>
@@ -200,18 +419,36 @@
     <t>https://www.medanta.org/hospitals-near-me/gurugram-hospital/speciality/radiology/technology/ct-scan-on-wheels</t>
   </si>
   <si>
+    <t>https://www.medanta.org/hospitals-near-me/gurugram-hospital/speciality/radiology/technology/ct-scan-on-wheels | CT Scan on Wheels - Uses, Purpose, Procedure, Benefits and Risks | Medanta</t>
+  </si>
+  <si>
+    <t>22-02-2026 18:02:15</t>
+  </si>
+  <si>
     <t>Telemedicine</t>
   </si>
   <si>
     <t>https://www.medanta.org/tele-medicine</t>
   </si>
   <si>
+    <t>https://www.medanta.org/tele-medicine | Consult Best Doctors Online with Telemedicine Services</t>
+  </si>
+  <si>
+    <t>22-02-2026 18:02:53</t>
+  </si>
+  <si>
     <t>Treatment Detail</t>
   </si>
   <si>
     <t>https://www.medanta.org/hospitals-near-me/gurugram-hospital/speciality/plastic-surgery/treatment/abdominoplasty-tummy-tuck-operation</t>
   </si>
   <si>
+    <t>https://www.medanta.org/hospitals-near-me/gurugram-hospital/speciality/plastic-surgery/treatment/abdominoplasty-tummy-tuck-operation | Abdominoplasty: Insights into Effective Tummy Tuck Surgery</t>
+  </si>
+  <si>
+    <t>22-02-2026 18:03:36</t>
+  </si>
+  <si>
     <t>E -ICU</t>
   </si>
   <si>
@@ -221,22 +458,34 @@
     <t>https://www.medanta.org/eicu</t>
   </si>
   <si>
-    <t>Date:</t>
-  </si>
-  <si>
-    <t>13-01-2026 11:44:47</t>
-  </si>
-  <si>
-    <t>14-01-2026 16:22:17</t>
-  </si>
-  <si>
-    <t>14-01-2026 16:33:43</t>
-  </si>
-  <si>
-    <t>20-01-2026 15:20:22</t>
-  </si>
-  <si>
-    <t>13-02-2026 21:38:49</t>
+    <t>https://www.medanta.org/eicu | Remote Intensive Care Services with Advanced eICU Support</t>
+  </si>
+  <si>
+    <t>22-02-2026 18:04:10</t>
+  </si>
+  <si>
+    <t>22-02-2026 17:45:52</t>
+  </si>
+  <si>
+    <t>22-02-2026 18:16:11</t>
+  </si>
+  <si>
+    <t>Name=Dipesh | Email=dipesh@yopmail.com | File=SELECTED</t>
+  </si>
+  <si>
+    <t>22-02-2026 18:16:59</t>
+  </si>
+  <si>
+    <t>22-02-2026 18:17:50</t>
+  </si>
+  <si>
+    <t>Name=Dipesh | Mobile=9876543210 | Email=dipesh@yopmail.com | Message=Test | File=C:\Users\LYXELANDFLAMINGO\eclipse-workspace\Eclipse 1\Medanta\SampleDocs\upload.docx</t>
+  </si>
+  <si>
+    <t>https://www.medanta.org/second-opinion | Get a Second Opinion from Leading Medical Experts | Medanta</t>
+  </si>
+  <si>
+    <t>22-02-2026 18:18:33</t>
   </si>
 </sst>
 </file>
@@ -244,12 +493,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,6 +512,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -291,15 +548,16 @@
       <charset val="0"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -308,53 +566,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,7 +580,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -383,23 +595,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -420,7 +617,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -462,43 +719,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,19 +845,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,7 +863,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,110 +903,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -671,73 +928,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -746,30 +942,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -785,21 +957,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -830,11 +987,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -843,152 +1030,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1004,39 +1191,27 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1357,23 +1532,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="A23" sqref="$A23:$XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="3" width="9.14285714285714"/>
-    <col min="2" max="2" customWidth="true" style="3" width="25.1428571428571"/>
-    <col min="3" max="3" customWidth="true" style="3" width="36.7142857142857"/>
-    <col min="4" max="4" customWidth="true" style="3" width="138.0"/>
-    <col min="5" max="5" customWidth="true" style="3" width="37.1428571428571"/>
-    <col min="6" max="16384" style="1" width="9.14285714285714"/>
+    <col min="1" max="1" customWidth="true" style="3" width="3.57142857142857"/>
+    <col min="2" max="2" customWidth="true" style="3" width="23.5714285714286"/>
+    <col min="3" max="3" customWidth="true" style="3" width="27.2857142857143"/>
+    <col min="4" max="4" customWidth="true" style="3" width="135.142857142857"/>
+    <col min="5" max="5" customWidth="true" style="3" width="30.8571428571429"/>
+    <col min="6" max="6" customWidth="true" style="1" width="234.285714285714"/>
+    <col min="7" max="7" customWidth="true" style="1" width="11.7142857142857"/>
+    <col min="8" max="8" customWidth="true" style="1" width="13.4285714285714"/>
+    <col min="9" max="9" customWidth="true" style="1" width="29.7142857142857"/>
+    <col min="10" max="10" customWidth="true" style="1" width="15.4285714285714"/>
+    <col min="11" max="11" customWidth="true" style="1" width="16.8571428571429"/>
+    <col min="12" max="12" customWidth="true" style="1" width="19.5714285714286"/>
+    <col min="13" max="16384" style="1" width="9.14285714285714"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.75" spans="1:5">
+    <row r="1" s="1" customFormat="1" ht="15.75" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1389,499 +1571,1118 @@
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="30" spans="1:9">
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="30" spans="1:12">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:9">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:12">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="10"/>
       <c r="E3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" s="2" customFormat="1" spans="1:9">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:12">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" s="2" customFormat="1" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:12">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:12">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:5">
+      <c r="F6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:12">
       <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:5">
+      <c r="K7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:12">
       <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8"/>
-    </row>
-    <row r="9" s="2" customFormat="1" spans="1:9">
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:12">
       <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" s="2" customFormat="1" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="1:12">
       <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" s="2" customFormat="1" spans="1:9">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" t="s">
+        <v>60</v>
+      </c>
+      <c r="L10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:12">
       <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>25</v>
+      <c r="B11" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" s="2" customFormat="1" spans="1:9">
+        <v>63</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="1:12">
       <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>25</v>
+      <c r="B12" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" s="2" customFormat="1" spans="1:9">
+        <v>68</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" t="s">
+        <v>69</v>
+      </c>
+      <c r="L12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="1:12">
       <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" s="2" customFormat="1" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="1:12">
       <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="14"/>
+        <v>77</v>
+      </c>
+      <c r="C14" s="8"/>
       <c r="D14" s="9"/>
-      <c r="E14"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:5">
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" t="s">
+        <v>78</v>
+      </c>
+      <c r="L14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:12">
       <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15"/>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:5">
+      <c r="B15" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" t="s">
+        <v>84</v>
+      </c>
+      <c r="L15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:12">
       <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="15" t="s">
-        <v>33</v>
+      <c r="B16" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16"/>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:5">
+        <v>87</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" t="s">
+        <v>89</v>
+      </c>
+      <c r="L16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:12">
       <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>28</v>
+      <c r="B17" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:5">
+        <v>87</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" t="s">
+        <v>89</v>
+      </c>
+      <c r="L17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:12">
       <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18"/>
-    </row>
-    <row r="19" s="2" customFormat="1" spans="1:6">
+      <c r="B18" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" t="s">
+        <v>94</v>
+      </c>
+      <c r="L18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" spans="1:12">
       <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" s="2" customFormat="1" spans="1:6">
+        <v>97</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" t="s">
+        <v>98</v>
+      </c>
+      <c r="L19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" spans="1:12">
       <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" s="2" customFormat="1" spans="1:6">
+        <v>102</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" t="s">
+        <v>104</v>
+      </c>
+      <c r="L20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" spans="1:12">
       <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:5">
+        <v>107</v>
+      </c>
+      <c r="E21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" t="s">
+        <v>109</v>
+      </c>
+      <c r="J21" t="s">
+        <v>110</v>
+      </c>
+      <c r="K21" t="s">
+        <v>111</v>
+      </c>
+      <c r="L21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:12">
       <c r="A22" s="6">
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22"/>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:5">
+        <v>115</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" t="s">
+        <v>116</v>
+      </c>
+      <c r="L22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:12">
       <c r="A23" s="6">
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="E23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="F23" t="s">
+        <v>151</v>
+      </c>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" t="s">
+        <v>116</v>
+      </c>
+      <c r="L23" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:12">
       <c r="A24" s="6">
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="E24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="F24" t="s">
+        <v>121</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" t="s">
+        <v>122</v>
+      </c>
+      <c r="L24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:12">
       <c r="A25" s="6">
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="E25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="F25" t="s">
+        <v>127</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" t="s">
+        <v>128</v>
+      </c>
+      <c r="L25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:12">
       <c r="A26" s="6">
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>57</v>
+        <v>130</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>58</v>
+        <v>131</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="1:5">
+        <v>108</v>
+      </c>
+      <c r="F26" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" t="s">
+        <v>109</v>
+      </c>
+      <c r="J26" t="s">
+        <v>110</v>
+      </c>
+      <c r="K26" t="s">
+        <v>155</v>
+      </c>
+      <c r="L26" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:12">
       <c r="A27" s="6">
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="E27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="F27" t="s">
+        <v>103</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" t="s">
+        <v>134</v>
+      </c>
+      <c r="L27" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:12">
       <c r="A28" s="6">
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="E28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="F28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" t="s">
+        <v>138</v>
+      </c>
+      <c r="L28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:12">
       <c r="A29" s="6">
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>63</v>
+        <v>140</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>64</v>
+        <v>141</v>
       </c>
       <c r="E29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="F29" t="s">
+        <v>103</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" t="s">
+        <v>142</v>
+      </c>
+      <c r="L29" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:12">
       <c r="A30" s="6">
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c r="E30" t="s">
-        <v>51</v>
+        <v>108</v>
+      </c>
+      <c r="F30" t="s">
+        <v>103</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" t="s">
+        <v>109</v>
+      </c>
+      <c r="J30" t="s">
+        <v>110</v>
+      </c>
+      <c r="K30" t="s">
+        <v>147</v>
+      </c>
+      <c r="L30" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:5">
@@ -1891,12 +2692,9 @@
       <c r="D31"/>
       <c r="E31"/>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="3" t="s">
-        <v>68</v>
-      </c>
+    <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>73</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/formsautomation.xlsx
+++ b/src/test/resources/formsautomation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="163">
   <si>
     <t>No</t>
   </si>
@@ -486,6 +486,24 @@
   </si>
   <si>
     <t>22-02-2026 18:18:33</t>
+  </si>
+  <si>
+    <t>25-02-2026 13:38:35</t>
+  </si>
+  <si>
+    <t>25-02-2026 13:39:23</t>
+  </si>
+  <si>
+    <t>25-02-2026 15:13:57</t>
+  </si>
+  <si>
+    <t>25-02-2026 15:14:18</t>
+  </si>
+  <si>
+    <t>25-02-2026 15:14:37</t>
+  </si>
+  <si>
+    <t>25-02-2026 15:15:03</t>
   </si>
 </sst>
 </file>
@@ -1607,7 +1625,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
@@ -1619,7 +1637,7 @@
         <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="J2" t="s">
         <v>18</v>
@@ -1628,7 +1646,7 @@
         <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:12">
@@ -1700,7 +1718,7 @@
         <v>31</v>
       </c>
       <c r="L4" t="s">
-        <v>32</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:12">
@@ -2694,7 +2712,7 @@
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/formsautomation.xlsx
+++ b/src/test/resources/formsautomation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18765" windowHeight="2850"/>
+    <workbookView windowWidth="18735" windowHeight="5175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="152">
   <si>
     <t>No</t>
   </si>
@@ -71,13 +71,16 @@
     <t/>
   </si>
   <si>
+    <t>Submitted</t>
+  </si>
+  <si>
     <t>true</t>
   </si>
   <si>
     <t>https://www.medanta.org/hospitals-near-me/gurugram-hospital/speciality/orthopaedics/disease/achilles-tendon-injury-symptoms-causes-treatment-recovery | Achilles Tendon Injury - Symptoms, Causes, Treatment &amp; Recovery | Medanta</t>
   </si>
   <si>
-    <t>22-02-2026 17:46:31</t>
+    <t>25-02-2026 20:31:01</t>
   </si>
   <si>
     <t>Air Ambulance</t>
@@ -89,7 +92,7 @@
     <t>https://www.medanta.org/air-ambulance | Emergency Air Ambulance for Critical Medical Transport</t>
   </si>
   <si>
-    <t>22-02-2026 17:47:06</t>
+    <t>25-02-2026 20:31:14</t>
   </si>
   <si>
     <t>Become A Partner</t>
@@ -101,19 +104,13 @@
     <t>https://www.medanta.org/medanta-labs/become-a-partner</t>
   </si>
   <si>
-    <t>❌ SERVER_FAIL (POST SUBMIT)</t>
-  </si>
-  <si>
     <t>Name=Dipesh | Email=dipesh@yopmail.com | Mobile=9876543210 | Address=Test | Pincode=123456</t>
   </si>
   <si>
-    <t>API returned 5xx after submit</t>
-  </si>
-  <si>
     <t>https://www.medanta.org/medanta-labs/become-a-partner | Become a Partner with Medanta Labs - Collaboration Opportunities | Medanta</t>
   </si>
   <si>
-    <t>22-02-2026 17:47:40</t>
+    <t>25-02-2026 20:31:28</t>
   </si>
   <si>
     <t>Blog Detail Page</t>
@@ -125,13 +122,22 @@
     <t>https://www.medanta.org/patient-education-blog/omicron-variant-key-facts-you-need-to-know-in-2025</t>
   </si>
   <si>
+    <t>⚠ UNKNOWN</t>
+  </si>
+  <si>
     <t>Name=Test | Mobile=9876543210 | Email=dipesh@yopmail.com</t>
   </si>
   <si>
+    <t>No success/error signal detected</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>https://www.medanta.org/patient-education-blog/omicron-variant-key-facts-you-need-to-know-in-2025 | Omicron Variant B.1.1.529 : Key Facts You Need to Know in 2025</t>
   </si>
   <si>
-    <t>22-02-2026 17:48:16</t>
+    <t>25-02-2026 20:31:45</t>
   </si>
   <si>
     <t>Contact us</t>
@@ -149,7 +155,7 @@
     <t>https://www.medanta.org/contact-us | Medanta Customer Services - Call +91-880-000-1068 for Appointments, Queries</t>
   </si>
   <si>
-    <t>22-02-2026 17:48:56</t>
+    <t>25-02-2026 20:31:56</t>
   </si>
   <si>
     <t>Feedback</t>
@@ -158,16 +164,16 @@
     <t>Message=Test | Name=Dipesh | Mobile=9876543210 | Email=dipesh@yopmail.com</t>
   </si>
   <si>
-    <t>22-02-2026 17:49:31</t>
+    <t>25-02-2026 20:32:08</t>
   </si>
   <si>
     <t>Others</t>
   </si>
   <si>
-    <t>Name=dipesh | Email=dipesh@yopmail.com | Hospital=Select Hospital | Mobile=9876543210 | Message=Test</t>
-  </si>
-  <si>
-    <t>22-02-2026 17:50:10</t>
+    <t>Name=dipesh | Email=dipesh@yopmail.com | Hospital=Medanta Gurugram | Mobile=9876543210 | Message=Test</t>
+  </si>
+  <si>
+    <t>25-02-2026 20:32:20</t>
   </si>
   <si>
     <t>CPR</t>
@@ -185,7 +191,7 @@
     <t>https://www.medanta.org/cpr | Learn CPR Techniques &amp; Emergency Response Guidelines | Medanta</t>
   </si>
   <si>
-    <t>22-02-2026 17:50:48</t>
+    <t>25-02-2026 20:32:32</t>
   </si>
   <si>
     <t>Cultural Event Detail Page</t>
@@ -200,7 +206,7 @@
     <t>https://www.medanta.org/careers/events/cultural-events | Cultural Events at Medanta - Celebrating Diversity and Inclusion | Medanta</t>
   </si>
   <si>
-    <t>22-02-2026 17:51:27</t>
+    <t>25-02-2026 20:32:42</t>
   </si>
   <si>
     <t>Elder care</t>
@@ -215,19 +221,16 @@
     <t>Name=Dipesh | Mobile=9876543210 | Email=dipesh@yopmail.com | City=Gurugram | Mode=Call | ConsentChecked=true</t>
   </si>
   <si>
-    <t>https://www.medanta.org/elder-care-program | 1 new message</t>
-  </si>
-  <si>
-    <t>22-02-2026 17:52:08</t>
+    <t>https://www.medanta.org/elder-care-program | Elder Care Program | Medanta</t>
+  </si>
+  <si>
+    <t>25-02-2026 20:32:58</t>
   </si>
   <si>
     <t>Request a Callback</t>
   </si>
   <si>
-    <t>https://www.medanta.org/elder-care-program | Elder Care Program | Medanta</t>
-  </si>
-  <si>
-    <t>22-02-2026 17:52:47</t>
+    <t>25-02-2026 20:33:11</t>
   </si>
   <si>
     <t>Header</t>
@@ -245,7 +248,7 @@
     <t>https://www.medanta.org/ | Super Speciality Hospital | Best Healthcare Hospital in India</t>
   </si>
   <si>
-    <t>22-02-2026 17:53:21</t>
+    <t>25-02-2026 20:33:24</t>
   </si>
   <si>
     <t>HealthCheckup</t>
@@ -254,7 +257,7 @@
     <t>https://www.medanta.org/healthcheckup/gurugram-hospital | Health CheckUp | Medanta</t>
   </si>
   <si>
-    <t>22-02-2026 17:54:08</t>
+    <t>25-02-2026 20:33:48</t>
   </si>
   <si>
     <t>Homecare</t>
@@ -272,7 +275,7 @@
     <t>https://www.medanta.org/home-care-service-program/elder-care-program | Dr. Dharmendera Singh | Cardiologist &amp; Heart Health Transformations | Medanta</t>
   </si>
   <si>
-    <t>22-02-2026 17:54:47</t>
+    <t>25-02-2026 20:34:03</t>
   </si>
   <si>
     <t>EnquiryNow</t>
@@ -287,10 +290,10 @@
     <t>https://www.medanta.org/home-care | Personalized Healthcare at Home - Home Care Services at Medanta</t>
   </si>
   <si>
-    <t>22-02-2026 17:55:26</t>
-  </si>
-  <si>
-    <t>22-02-2026 17:56:04</t>
+    <t>25-02-2026 20:34:16</t>
+  </si>
+  <si>
+    <t>25-02-2026 20:34:30</t>
   </si>
   <si>
     <t>Stroke Rehabilitation Program</t>
@@ -302,7 +305,7 @@
     <t>https://www.medanta.org/home-care-service-program/stroke-rehabilitation-program | Home Care Service | Medanta</t>
   </si>
   <si>
-    <t>22-02-2026 17:56:43</t>
+    <t>25-02-2026 20:34:41</t>
   </si>
   <si>
     <t>International Patients</t>
@@ -314,7 +317,7 @@
     <t>https://www.medanta.org/international-patient | International Patient Services | Medanta Hospitals India</t>
   </si>
   <si>
-    <t>22-02-2026 17:57:22</t>
+    <t>25-02-2026 20:34:55</t>
   </si>
   <si>
     <t>Temporary Landing</t>
@@ -332,7 +335,7 @@
     <t>https://www.medanta.org/landing/thankyou | Thankyou | Medanta</t>
   </si>
   <si>
-    <t>22-02-2026 17:58:05</t>
+    <t>25-02-2026 20:35:05</t>
   </si>
   <si>
     <t>Medanta Labs</t>
@@ -341,19 +344,10 @@
     <t>https://www.medanta.org/medanta-labs</t>
   </si>
   <si>
-    <t>❌ SERVER_FAIL</t>
-  </si>
-  <si>
-    <t>API returned 5xx</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>https://www.medanta.org/medanta-labs | Advanced Diagnostic Tests &amp; Reliable Lab Services</t>
   </si>
   <si>
-    <t>22-02-2026 17:58:48</t>
+    <t>25-02-2026 20:35:18</t>
   </si>
   <si>
     <t>Medanta Pharmacy</t>
@@ -368,12 +362,18 @@
     <t>https://www.medanta.org/medanta-pharmacy | Medanta Pharmacy | Medanta</t>
   </si>
   <si>
-    <t>22-02-2026 17:59:28</t>
+    <t>25-02-2026 20:35:31</t>
   </si>
   <si>
     <t>Prescription upload Form</t>
   </si>
   <si>
+    <t>Name=Dipesh | Email=dipesh@yopmail.com | File=SELECTED</t>
+  </si>
+  <si>
+    <t>25-02-2026 20:35:44</t>
+  </si>
+  <si>
     <t>Plan your trip</t>
   </si>
   <si>
@@ -386,7 +386,7 @@
     <t>https://www.medanta.org/plan-your-trip | Plan Your Medical Trip: International Patient Guide | Medanta</t>
   </si>
   <si>
-    <t>22-02-2026 18:00:26</t>
+    <t>25-02-2026 20:35:56</t>
   </si>
   <si>
     <t>Request an Estimate</t>
@@ -398,13 +398,13 @@
     <t>https://www.medanta.org/international-patient/services/request-an-estimate</t>
   </si>
   <si>
-    <t>FirstName=Dipesh | LastName=Singh | Email=dipesh@yopmail.com | Mobile=9876543210 | CountryIndex=8 | Department=Obstetrics | File=C:\Users\LYXELANDFLAMINGO\eclipse-workspace\Eclipse 1\Medanta\SampleDocs\upload.docx</t>
+    <t>FirstName=Dipesh | LastName=Singh | Email=dipesh@yopmail.com | Mobile=9876543210 | Country=Others | Department=Obstetrics | File=SELECTED</t>
   </si>
   <si>
     <t>https://www.medanta.org/international-patient/services/request-an-estimate | Request An Estimate | Medanta</t>
   </si>
   <si>
-    <t>22-02-2026 18:01:09</t>
+    <t>25-02-2026 20:36:10</t>
   </si>
   <si>
     <t>Second Opinion</t>
@@ -422,7 +422,7 @@
     <t>https://www.medanta.org/hospitals-near-me/gurugram-hospital/speciality/radiology/technology/ct-scan-on-wheels | CT Scan on Wheels - Uses, Purpose, Procedure, Benefits and Risks | Medanta</t>
   </si>
   <si>
-    <t>22-02-2026 18:02:15</t>
+    <t>25-02-2026 21:09:50</t>
   </si>
   <si>
     <t>Telemedicine</t>
@@ -434,7 +434,7 @@
     <t>https://www.medanta.org/tele-medicine | Consult Best Doctors Online with Telemedicine Services</t>
   </si>
   <si>
-    <t>22-02-2026 18:02:53</t>
+    <t>25-02-2026 21:22:43</t>
   </si>
   <si>
     <t>Treatment Detail</t>
@@ -446,7 +446,7 @@
     <t>https://www.medanta.org/hospitals-near-me/gurugram-hospital/speciality/plastic-surgery/treatment/abdominoplasty-tummy-tuck-operation | Abdominoplasty: Insights into Effective Tummy Tuck Surgery</t>
   </si>
   <si>
-    <t>22-02-2026 18:03:36</t>
+    <t>25-02-2026 21:23:31</t>
   </si>
   <si>
     <t>E -ICU</t>
@@ -461,49 +461,16 @@
     <t>https://www.medanta.org/eicu | Remote Intensive Care Services with Advanced eICU Support</t>
   </si>
   <si>
-    <t>22-02-2026 18:04:10</t>
-  </si>
-  <si>
-    <t>22-02-2026 17:45:52</t>
-  </si>
-  <si>
-    <t>22-02-2026 18:16:11</t>
-  </si>
-  <si>
-    <t>Name=Dipesh | Email=dipesh@yopmail.com | File=SELECTED</t>
-  </si>
-  <si>
-    <t>22-02-2026 18:16:59</t>
-  </si>
-  <si>
-    <t>22-02-2026 18:17:50</t>
-  </si>
-  <si>
-    <t>Name=Dipesh | Mobile=9876543210 | Email=dipesh@yopmail.com | Message=Test | File=C:\Users\LYXELANDFLAMINGO\eclipse-workspace\Eclipse 1\Medanta\SampleDocs\upload.docx</t>
-  </si>
-  <si>
-    <t>https://www.medanta.org/second-opinion | Get a Second Opinion from Leading Medical Experts | Medanta</t>
-  </si>
-  <si>
-    <t>22-02-2026 18:18:33</t>
-  </si>
-  <si>
-    <t>25-02-2026 13:38:35</t>
-  </si>
-  <si>
-    <t>25-02-2026 13:39:23</t>
-  </si>
-  <si>
-    <t>25-02-2026 15:13:57</t>
-  </si>
-  <si>
-    <t>25-02-2026 15:14:18</t>
-  </si>
-  <si>
-    <t>25-02-2026 15:14:37</t>
-  </si>
-  <si>
-    <t>25-02-2026 15:15:03</t>
+    <t>25-02-2026 21:24:25</t>
+  </si>
+  <si>
+    <t>25-02-2026 21:24:12</t>
+  </si>
+  <si>
+    <t>25-02-2026 21:25:43</t>
+  </si>
+  <si>
+    <t>25-02-2026 21:25:58</t>
   </si>
 </sst>
 </file>
@@ -511,8 +478,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -566,32 +533,9 @@
       <charset val="0"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -605,16 +549,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -628,15 +564,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -657,8 +631,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -672,17 +654,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -695,20 +676,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -737,19 +704,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,115 +830,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,43 +878,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -948,9 +915,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -959,47 +937,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1020,6 +957,45 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1034,166 +1010,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1227,9 +1194,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1552,8 +1516,8 @@
   <sheetPr/>
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="A23" sqref="$A23:$XFD23"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A4" sqref="$A4:$XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1625,7 +1589,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
@@ -1637,16 +1601,16 @@
         <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>160</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:12">
@@ -1654,7 +1618,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="10"/>
@@ -1662,7 +1626,7 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
@@ -1671,16 +1635,16 @@
         <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:12">
@@ -1688,16 +1652,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -1709,16 +1673,16 @@
         <v>17</v>
       </c>
       <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
         <v>30</v>
       </c>
-      <c r="J4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>31</v>
-      </c>
-      <c r="L4" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:12">
@@ -1726,13 +1690,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>35</v>
       </c>
       <c r="E5" t="s">
         <v>15</v>
@@ -1747,16 +1711,16 @@
         <v>17</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L5" t="s">
-        <v>38</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:12">
@@ -1764,19 +1728,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
@@ -1785,16 +1749,16 @@
         <v>17</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:12">
@@ -1802,37 +1766,37 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" t="s">
-        <v>43</v>
-      </c>
       <c r="L7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:12">
@@ -1840,19 +1804,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G8" t="s">
         <v>17</v>
@@ -1861,16 +1825,16 @@
         <v>17</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:12">
@@ -1878,19 +1842,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s">
         <v>17</v>
@@ -1899,16 +1863,16 @@
         <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:12">
@@ -1916,19 +1880,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G10" t="s">
         <v>17</v>
@@ -1937,16 +1901,16 @@
         <v>17</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:12">
@@ -1954,19 +1918,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
         <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G11" t="s">
         <v>17</v>
@@ -1975,16 +1939,16 @@
         <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:12">
@@ -1992,17 +1956,17 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" t="s">
         <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G12" t="s">
         <v>17</v>
@@ -2011,16 +1975,16 @@
         <v>17</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:12">
@@ -2028,19 +1992,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E13" t="s">
         <v>15</v>
       </c>
       <c r="F13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G13" t="s">
         <v>17</v>
@@ -2049,16 +2013,16 @@
         <v>17</v>
       </c>
       <c r="I13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" spans="1:12">
@@ -2066,7 +2030,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="9"/>
@@ -2074,7 +2038,7 @@
         <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G14" t="s">
         <v>17</v>
@@ -2083,16 +2047,16 @@
         <v>17</v>
       </c>
       <c r="I14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:12">
@@ -2100,19 +2064,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E15" t="s">
         <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G15" t="s">
         <v>17</v>
@@ -2121,16 +2085,16 @@
         <v>17</v>
       </c>
       <c r="I15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:12">
@@ -2138,19 +2102,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E16" t="s">
         <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G16" t="s">
         <v>17</v>
@@ -2159,16 +2123,16 @@
         <v>17</v>
       </c>
       <c r="I16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:12">
@@ -2176,19 +2140,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E17" t="s">
         <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G17" t="s">
         <v>17</v>
@@ -2197,16 +2161,16 @@
         <v>17</v>
       </c>
       <c r="I17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:12">
@@ -2214,19 +2178,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E18" t="s">
         <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G18" t="s">
         <v>17</v>
@@ -2235,16 +2199,16 @@
         <v>17</v>
       </c>
       <c r="I18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" spans="1:12">
@@ -2252,19 +2216,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E19" t="s">
         <v>15</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G19" t="s">
         <v>17</v>
@@ -2273,16 +2237,16 @@
         <v>17</v>
       </c>
       <c r="I19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" spans="1:12">
@@ -2290,19 +2254,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E20" t="s">
         <v>15</v>
       </c>
       <c r="F20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G20" t="s">
         <v>17</v>
@@ -2311,16 +2275,16 @@
         <v>17</v>
       </c>
       <c r="I20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" spans="1:12">
@@ -2328,19 +2292,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E21" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G21" t="s">
         <v>17</v>
@@ -2349,16 +2313,16 @@
         <v>17</v>
       </c>
       <c r="I21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J21" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" t="s">
         <v>109</v>
       </c>
-      <c r="J21" t="s">
+      <c r="L21" t="s">
         <v>110</v>
-      </c>
-      <c r="K21" t="s">
-        <v>111</v>
-      </c>
-      <c r="L21" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:12">
@@ -2366,37 +2330,37 @@
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" t="s">
         <v>114</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="L22" t="s">
         <v>115</v>
-      </c>
-      <c r="E22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" t="s">
-        <v>116</v>
-      </c>
-      <c r="L22" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:12">
@@ -2404,37 +2368,37 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" t="s">
+        <v>117</v>
+      </c>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" t="s">
+        <v>18</v>
+      </c>
+      <c r="J23" t="s">
+        <v>19</v>
+      </c>
+      <c r="K23" t="s">
+        <v>114</v>
+      </c>
+      <c r="L23" t="s">
         <v>118</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E23" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" t="s">
-        <v>151</v>
-      </c>
-      <c r="G23" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" t="s">
-        <v>116</v>
-      </c>
-      <c r="L23" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:12">
@@ -2445,7 +2409,7 @@
         <v>119</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>120</v>
@@ -2463,10 +2427,10 @@
         <v>17</v>
       </c>
       <c r="I24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K24" t="s">
         <v>122</v>
@@ -2501,10 +2465,10 @@
         <v>17</v>
       </c>
       <c r="I25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K25" t="s">
         <v>128</v>
@@ -2521,35 +2485,19 @@
         <v>130</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="E26" t="s">
-        <v>108</v>
-      </c>
-      <c r="F26" t="s">
-        <v>154</v>
-      </c>
-      <c r="G26" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" t="s">
-        <v>17</v>
-      </c>
-      <c r="I26" t="s">
-        <v>109</v>
-      </c>
-      <c r="J26" t="s">
-        <v>110</v>
-      </c>
-      <c r="K26" t="s">
-        <v>155</v>
-      </c>
-      <c r="L26" t="s">
-        <v>156</v>
-      </c>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:12">
       <c r="A27" s="6">
@@ -2559,7 +2507,7 @@
         <v>132</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>133</v>
@@ -2568,7 +2516,7 @@
         <v>15</v>
       </c>
       <c r="F27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G27" t="s">
         <v>17</v>
@@ -2577,10 +2525,10 @@
         <v>17</v>
       </c>
       <c r="I27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K27" t="s">
         <v>134</v>
@@ -2597,7 +2545,7 @@
         <v>136</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>137</v>
@@ -2606,7 +2554,7 @@
         <v>15</v>
       </c>
       <c r="F28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G28" t="s">
         <v>17</v>
@@ -2615,10 +2563,10 @@
         <v>17</v>
       </c>
       <c r="I28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K28" t="s">
         <v>138</v>
@@ -2635,7 +2583,7 @@
         <v>140</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>141</v>
@@ -2644,7 +2592,7 @@
         <v>15</v>
       </c>
       <c r="F29" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G29" t="s">
         <v>17</v>
@@ -2653,10 +2601,10 @@
         <v>17</v>
       </c>
       <c r="I29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K29" t="s">
         <v>142</v>
@@ -2679,10 +2627,10 @@
         <v>146</v>
       </c>
       <c r="E30" t="s">
-        <v>108</v>
+        <v>15</v>
       </c>
       <c r="F30" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G30" t="s">
         <v>17</v>
@@ -2691,10 +2639,10 @@
         <v>17</v>
       </c>
       <c r="I30" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="J30" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="K30" t="s">
         <v>147</v>
@@ -2712,7 +2660,7 @@
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
